--- a/TestCaseTemplate_By_Guru99.xlsx
+++ b/TestCaseTemplate_By_Guru99.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Desktop\Guru99-Banking-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183AF6E1-08A1-459B-93F9-DC6F96325738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F16F94-0096-4917-84C6-714ABABFB194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
   <si>
     <t>NOTE: To enter your own test cases
 1) Go to File &gt; Make a Copy
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>An error message "Passwords not match " must be shown</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -907,7 +910,9 @@
   </sheetPr>
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -1232,7 +1237,9 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1254,7 +1261,9 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1276,7 +1285,9 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
